--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92121.41496736424</v>
+        <v>17007137.17700237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92121.41496736424</v>
+        <v>17007137.17700237</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38474.72161910609</v>
+        <v>4889900.214981243</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38474.72161910609</v>
+        <v>4889900.214981243</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418436522.416215</v>
+        <v>52941507.26117007</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11593.08660091991</v>
+        <v>1209101.004384606</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22149.47469373042</v>
+        <v>2259171.291241984</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32705.86278654091</v>
+        <v>3309241.578099365</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43350.93558044597</v>
+        <v>4340396.593482729</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53930.77884608759</v>
+        <v>5392953.128660208</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64483.49529498133</v>
+        <v>6444185.677060548</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75011.70230674444</v>
+        <v>7544119.47277137</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85508.8710664352</v>
+        <v>8637537.510365741</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96462.13501215271</v>
+        <v>9629151.404326417</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106795.4347706109</v>
+        <v>10746758.81849677</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117016.1218403626</v>
+        <v>11875404.5638485</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127204.2645913326</v>
+        <v>13000626.55840206</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137392.4174426663</v>
+        <v>14125848.55295561</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148458.7288561238</v>
+        <v>15077486.56058436</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160939.9469038362</v>
+        <v>15775798.66793475</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27058,7 +27058,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>339</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,13 +27144,13 @@
         <v>63</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
